--- a/CORTES DE CAJA/2026/2) FEBRERO/LISTA DE LAS VENTAS SEMANA 5 DE FEBRERO-26.xlsx
+++ b/CORTES DE CAJA/2026/2) FEBRERO/LISTA DE LAS VENTAS SEMANA 5 DE FEBRERO-26.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA50B2-897C-4DBE-9379-897A27D4D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA371529-FBD2-40BC-A6E3-DA756E09C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,27 +1179,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1239,8 +1218,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1250,6 +1247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3001,23 +3001,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -3030,14 +3030,14 @@
         <f>SUM(Tabla1[Importa])</f>
         <v>2084</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -3068,17 +3068,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>21</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -3097,21 +3097,21 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C36" si="0">IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -3133,19 +3133,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40.5</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -3167,19 +3167,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>459</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -3201,19 +3201,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>80.5</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -3235,19 +3235,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -3269,19 +3269,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -3303,19 +3303,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -3337,19 +3337,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -3371,19 +3371,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>140.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -3405,19 +3405,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -3439,17 +3439,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40.5</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -3468,17 +3468,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>22</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -3497,17 +3497,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>140</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -3526,17 +3526,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>140</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -3555,17 +3555,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -3584,17 +3584,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -3613,17 +3613,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -3642,17 +3642,17 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -3678,7 +3678,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3700,19 +3700,19 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>81</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3731,12 +3731,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>400</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -3751,18 +3751,18 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G26))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M26" s="38" t="s">
+      <c r="M26" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -3777,12 +3777,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G27))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -3797,12 +3797,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G28))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -3817,12 +3817,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G29))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -3837,12 +3837,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G30))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -3857,12 +3857,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G31))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -3877,12 +3877,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G32))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -3897,12 +3897,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G33))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -3917,12 +3917,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G34))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -3937,12 +3937,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G35))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -3957,12 +3957,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G36))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -3977,12 +3977,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G37))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -3997,12 +3997,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G38))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -4017,12 +4017,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G39))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -4037,12 +4037,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G40))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -4057,12 +4057,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G41))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -4077,12 +4077,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G42))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -4097,12 +4097,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G43))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -4117,12 +4117,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G44))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -4137,12 +4137,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G45))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="str">
@@ -4157,12 +4157,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G46))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="str">
@@ -4177,12 +4177,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G47))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="34"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="str">
@@ -4197,12 +4197,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G48))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="37"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="str">
@@ -4217,12 +4217,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G49))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="str">
@@ -4237,12 +4237,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G50))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="37"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="str">
@@ -4257,12 +4257,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G51))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="34"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
@@ -4277,12 +4277,12 @@
         <f>IF(Tabla1[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla1[[#This Row],[Cantidad]]*Tabla1[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G52))), ( Tabla1[[#This Row],[Cantidad]]* Tabla1[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla1[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="37"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="str">
@@ -5001,33 +5001,19 @@
   </sheetData>
   <autoFilter ref="B4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="48">
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:R50"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:R52"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:R46"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:R48"/>
-    <mergeCell ref="P31:R32"/>
-    <mergeCell ref="P33:R34"/>
-    <mergeCell ref="P35:R36"/>
-    <mergeCell ref="P37:R38"/>
-    <mergeCell ref="P39:R40"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="M31:N32"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P41:R42"/>
+    <mergeCell ref="P43:R44"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N28"/>
@@ -5036,19 +5022,33 @@
     <mergeCell ref="O29:O30"/>
     <mergeCell ref="P27:R28"/>
     <mergeCell ref="P29:R30"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P41:R42"/>
-    <mergeCell ref="P43:R44"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M31:N32"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P31:R32"/>
+    <mergeCell ref="P33:R34"/>
+    <mergeCell ref="P35:R36"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="P39:R40"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:R46"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:R48"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:R50"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:R52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="14" priority="1">
@@ -5093,23 +5093,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -5122,14 +5122,14 @@
         <f>SUM(Tabla110[Importa])</f>
         <v>1585</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -5160,19 +5160,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla110[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -5194,21 +5194,21 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -5230,19 +5230,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>630</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -5264,19 +5264,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -5295,19 +5295,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>142</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -5329,19 +5329,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -5363,19 +5363,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>51.5</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -5397,19 +5397,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -5428,19 +5428,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>70</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -5459,19 +5459,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -5490,19 +5490,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>270</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -5524,17 +5524,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>171</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -5544,17 +5544,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -5564,17 +5564,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -5584,17 +5584,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -5604,17 +5604,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -5624,17 +5624,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -5644,17 +5644,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -5664,17 +5664,17 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -5688,7 +5688,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -5698,19 +5698,19 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -5720,12 +5720,12 @@
         <f>IF(Tabla110[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla110[[#This Row],[Cantidad]]*Tabla110[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla110[[#This Row],[Cantidad]]* Tabla110[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla110[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -5746,12 +5746,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -5772,10 +5772,10 @@
       <c r="N27" s="15">
         <v>2330</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -5796,10 +5796,10 @@
       <c r="N28" s="15">
         <v>3045</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -5816,10 +5816,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -5836,10 +5836,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -5856,10 +5856,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -5876,10 +5876,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -5896,10 +5896,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -5916,10 +5916,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -5936,10 +5936,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -5956,10 +5956,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -5976,10 +5976,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -5996,10 +5996,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -6016,10 +6016,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -6036,10 +6036,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -6056,10 +6056,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -6076,10 +6076,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -6096,10 +6096,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -6116,10 +6116,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -6949,32 +6949,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="12" priority="1">
@@ -7017,23 +7017,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -7046,14 +7046,14 @@
         <f>SUM(Tabla111[Importa])</f>
         <v>2544.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -7084,17 +7084,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla111[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f>IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -7116,21 +7116,21 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f>IF(ISNUMBER(E6), IF(ISNUMBER(C5), C5+1, 1), "")</f>
@@ -7149,19 +7149,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>62</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f>IF(ISNUMBER(E7), IF(ISNUMBER(C6), C6+1, 1), "")</f>
@@ -7180,19 +7180,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C68" si="0">IF(ISNUMBER(E8), IF(ISNUMBER(C7), C7+1, 1), "")</f>
@@ -7211,19 +7211,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -7242,19 +7242,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>645</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -7273,19 +7273,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>220</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -7304,19 +7304,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>45</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -7335,19 +7335,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>285</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -7369,19 +7369,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -7403,19 +7403,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>342</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -7437,17 +7437,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -7469,17 +7469,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>128</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -7501,17 +7501,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>36</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -7530,17 +7530,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -7562,12 +7562,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>103</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C20">
@@ -7587,17 +7587,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -7616,17 +7616,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -7645,17 +7645,17 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -7669,7 +7669,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -7679,19 +7679,19 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -7701,12 +7701,12 @@
         <f>IF(Tabla111[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla111[[#This Row],[Cantidad]]*Tabla111[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla111[[#This Row],[Cantidad]]* Tabla111[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla111[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -7727,12 +7727,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -7749,10 +7749,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -7769,10 +7769,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -7789,10 +7789,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -7809,10 +7809,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -7829,10 +7829,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -7849,10 +7849,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -7869,10 +7869,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -7889,10 +7889,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -7909,10 +7909,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -7929,10 +7929,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -7949,10 +7949,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -7969,10 +7969,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -7986,10 +7986,10 @@
       <c r="H39" s="5"/>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -8006,10 +8006,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -8026,10 +8026,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -8046,10 +8046,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -8066,10 +8066,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -8086,10 +8086,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -8919,32 +8919,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B19 B21:B103">
     <cfRule type="expression" dxfId="10" priority="1">
@@ -8992,23 +8992,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -9021,14 +9021,14 @@
         <f>SUM(Tabla112[Importa])</f>
         <v>3463.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -9059,17 +9059,17 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>20</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla112[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -9091,21 +9091,21 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>5.5</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -9124,19 +9124,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>12</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -9158,19 +9158,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>94</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -9192,19 +9192,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>91</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -9226,19 +9226,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>238.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -9260,19 +9260,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>522</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -9294,19 +9294,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>430.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -9328,19 +9328,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>40.5</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -9362,19 +9362,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>128</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -9396,19 +9396,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>67.5</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -9427,17 +9427,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>160</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -9459,17 +9459,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>99</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -9488,17 +9488,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>60</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -9517,17 +9517,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -9546,17 +9546,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -9578,17 +9578,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>135</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -9607,17 +9607,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>580</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -9639,17 +9639,17 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>315</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -9675,7 +9675,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -9694,19 +9694,19 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>218</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -9716,12 +9716,12 @@
         <f>IF(Tabla112[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla112[[#This Row],[Cantidad]]*Tabla112[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla112[[#This Row],[Cantidad]]* Tabla112[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla112[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -9742,12 +9742,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -9764,10 +9764,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -9784,10 +9784,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -9804,10 +9804,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -9824,10 +9824,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -9844,10 +9844,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -9864,10 +9864,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -9884,10 +9884,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -9904,10 +9904,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -9924,10 +9924,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -9944,10 +9944,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -9964,10 +9964,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -9984,10 +9984,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -10004,10 +10004,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -10024,10 +10024,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -10044,10 +10044,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -10064,10 +10064,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -10084,10 +10084,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -10104,10 +10104,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -10937,32 +10937,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="7" priority="1">
@@ -11006,23 +11006,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -11035,14 +11035,14 @@
         <f>SUM(Tabla113[Importa])</f>
         <v>3184.5</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -11073,19 +11073,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>25</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla113[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -11104,21 +11104,21 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -11137,19 +11137,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -11168,19 +11168,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -11199,19 +11199,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -11233,19 +11233,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>32.5</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -11264,19 +11264,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>71</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -11295,19 +11295,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>284</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -11326,19 +11326,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>57</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -11357,19 +11357,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>78</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -11388,19 +11388,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>90</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -11419,17 +11419,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>68</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -11448,17 +11448,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>72</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -11477,17 +11477,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>52</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11506,17 +11506,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -11535,17 +11535,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>30</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -11567,17 +11567,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>85.5</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -11596,17 +11596,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>800</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -11628,17 +11628,17 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>622</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -11664,7 +11664,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -11683,19 +11683,19 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>10</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -11717,12 +11717,12 @@
         <f>IF(Tabla113[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla113[[#This Row],[Cantidad]]*Tabla113[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla113[[#This Row],[Cantidad]]* Tabla113[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla113[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>27</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -11755,12 +11755,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -11793,12 +11793,12 @@
       <c r="N27" s="15">
         <v>2330</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -11831,12 +11831,12 @@
       <c r="N28" s="15">
         <v>3045</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -11869,12 +11869,12 @@
       <c r="N29" s="15">
         <v>9515</v>
       </c>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -11895,12 +11895,12 @@
       <c r="N30" s="15">
         <v>28</v>
       </c>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -11921,12 +11921,12 @@
       <c r="N31" s="15">
         <v>1500</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -11947,12 +11947,12 @@
       <c r="N32" s="15">
         <v>16418</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -11969,10 +11969,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -11989,10 +11989,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -12009,10 +12009,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -12029,10 +12029,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -12049,10 +12049,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -12069,10 +12069,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -12089,10 +12089,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -12109,10 +12109,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -12129,10 +12129,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -12149,10 +12149,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -12169,10 +12169,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -12189,10 +12189,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -13022,32 +13022,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -13091,23 +13091,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -13120,14 +13120,14 @@
         <f>SUM(Tabla114[Importa])</f>
         <v>2940</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -13158,19 +13158,19 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>23</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <f ca="1">IF(Tabla114[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="0">IF(ISNUMBER(E5), IF(ISNUMBER(C4), C4+1, 1), "")</f>
@@ -13189,21 +13189,21 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>11</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -13222,19 +13222,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>246</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -13253,19 +13253,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -13287,19 +13287,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>342</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -13321,19 +13321,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>65</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -13352,19 +13352,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>185</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -13386,19 +13386,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>719.5</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -13420,19 +13420,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>58.5</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -13451,19 +13451,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>50</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -13482,19 +13482,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>25</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -13513,17 +13513,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>15</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -13542,17 +13542,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>75</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -13574,17 +13574,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>13.5</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -13606,17 +13606,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>215.5</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -13635,17 +13635,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>123</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -13664,17 +13664,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>28</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -13693,17 +13693,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>35</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -13722,17 +13722,17 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>20</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -13755,7 +13755,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -13774,19 +13774,19 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>320</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -13805,12 +13805,12 @@
         <f>IF(Tabla114[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla114[[#This Row],[Cantidad]]*Tabla114[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla114[[#This Row],[Cantidad]]* Tabla114[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla114[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v>120</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -13840,12 +13840,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -13875,10 +13875,10 @@
       <c r="N27" s="15">
         <v>50</v>
       </c>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -13899,10 +13899,10 @@
       <c r="N28" s="15">
         <v>4856</v>
       </c>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -13919,10 +13919,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -13939,10 +13939,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -13959,10 +13959,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -13979,10 +13979,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -13999,10 +13999,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -14019,10 +14019,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -14039,10 +14039,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -14059,10 +14059,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -14079,10 +14079,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -14099,10 +14099,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -14119,10 +14119,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -14139,10 +14139,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -14159,10 +14159,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -14179,10 +14179,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -14199,10 +14199,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -14219,10 +14219,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -15052,32 +15052,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -15120,23 +15120,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
@@ -15149,14 +15149,14 @@
         <f>SUM(Tabla115[Importa])</f>
         <v>0</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="17" t="s">
@@ -15187,12 +15187,12 @@
         <f>COUNTIF(C5:C103,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="str">
@@ -15207,21 +15207,21 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G5))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -15231,19 +15231,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G6))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -15253,19 +15253,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G7))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -15275,19 +15275,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G8))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -15297,19 +15297,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G9))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -15319,19 +15319,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G10))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -15341,19 +15341,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G11))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -15363,19 +15363,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G12))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -15385,19 +15385,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G13))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -15407,19 +15407,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G14))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -15429,17 +15429,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G15))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -15449,17 +15449,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G16))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -15469,17 +15469,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G17))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -15489,17 +15489,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G18))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -15509,17 +15509,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G19))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -15529,17 +15529,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G20))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -15549,17 +15549,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G21))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -15569,17 +15569,17 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G22))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -15593,7 +15593,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -15603,19 +15603,19 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G24))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <f ca="1">IF(Tabla1[[#This Row],['#]]&lt;&gt;"", NOW(), "")</f>
-        <v>46060.79201921296</v>
+        <v>46062.641601157404</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -15625,12 +15625,12 @@
         <f>IF(Tabla115[[#This Row],[Cantidad]] &gt; 0,CEILING(( Tabla115[[#This Row],[Cantidad]]*Tabla115[[#This Row],[Precio]]) - IF(ISNUMBER(FIND("x", LOWER(G25))), ( Tabla115[[#This Row],[Cantidad]]* Tabla115[[#This Row],[Precio]] * IF(ISNUMBER(FIND("aceite", LOWER(Tabla115[[#This Row],[Producto]]))), 0.05, 0.1)), 0), 0.5), "")</f>
         <v/>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="str">
@@ -15651,12 +15651,12 @@
       <c r="N26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="str">
@@ -15673,10 +15673,10 @@
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="str">
@@ -15693,10 +15693,10 @@
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="42"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="str">
@@ -15713,10 +15713,10 @@
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="str">
@@ -15733,10 +15733,10 @@
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="42"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="str">
@@ -15753,10 +15753,10 @@
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="42"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="str">
@@ -15773,10 +15773,10 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="42"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -15793,10 +15793,10 @@
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="42"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="str">
@@ -15813,10 +15813,10 @@
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="str">
@@ -15833,10 +15833,10 @@
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="15"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="42"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="str">
@@ -15853,10 +15853,10 @@
       </c>
       <c r="M36" s="13"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="str">
@@ -15873,10 +15873,10 @@
       </c>
       <c r="M37" s="13"/>
       <c r="N37" s="15"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="str">
@@ -15893,10 +15893,10 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="str">
@@ -15913,10 +15913,10 @@
       </c>
       <c r="M39" s="13"/>
       <c r="N39" s="15"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="str">
@@ -15933,10 +15933,10 @@
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="15"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="str">
@@ -15953,10 +15953,10 @@
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="15"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="str">
@@ -15973,10 +15973,10 @@
       </c>
       <c r="M42" s="13"/>
       <c r="N42" s="15"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="str">
@@ -15993,10 +15993,10 @@
       </c>
       <c r="M43" s="13"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="str">
@@ -16013,10 +16013,10 @@
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="15"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="str">
@@ -16846,32 +16846,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R22"/>
+    <mergeCell ref="J5:K14"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="O38:R38"/>
     <mergeCell ref="O44:R44"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="O41:R41"/>
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R22"/>
-    <mergeCell ref="J5:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B103">
     <cfRule type="expression" dxfId="1" priority="1">
